--- a/plots.xlsx
+++ b/plots.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nestor\pnorouzi\CIS 565\Project3-CUDA-Path-Tracer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CIS 565\Project3-CUDA-Path-Tracer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CCB6F3-13EE-4D5E-BF04-D7B5FF2C74F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CA6DAA-0307-4A92-A90D-6E217C17F9A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{D0FD9547-FBA3-4462-B5A0-65DE7BE92278}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CF778C-EB49-4CB9-997F-AE69B2B79673}">
-  <dimension ref="A2:E18"/>
+  <dimension ref="A2:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="K14" sqref="K13:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,20 +411,26 @@
     <col min="3" max="3" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="K4">
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -434,16 +440,28 @@
       <c r="E5">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>1.46E-2</v>
+      </c>
+      <c r="K5">
+        <v>512487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K6">
+        <v>427009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -453,16 +471,52 @@
       <c r="E7">
         <v>640000</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="K7">
+        <v>250690</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8">
         <v>3.3999999999999998E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="K8">
+        <v>175832</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="K9">
+        <v>125298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="K10">
+        <v>90262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="K11">
+        <v>63626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -470,7 +524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>1</v>
       </c>
@@ -478,7 +532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -488,16 +542,28 @@
       <c r="E15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="K15">
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
       <c r="D16">
         <v>1.1999999999999999E-3</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K16">
+        <v>234550</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -507,13 +573,57 @@
       <c r="E17">
         <v>640000</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K17">
+        <v>72177</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18">
         <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="J18">
+        <v>1.8E-3</v>
+      </c>
+      <c r="K18">
+        <v>35271</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="K19">
+        <v>18664</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>1.4E-3</v>
+      </c>
+      <c r="K20">
+        <v>10753</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="K21">
+        <v>7243</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="K22">
+        <v>5233</v>
       </c>
     </row>
   </sheetData>

--- a/plots.xlsx
+++ b/plots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CIS 565\Project3-CUDA-Path-Tracer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CA6DAA-0307-4A92-A90D-6E217C17F9A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324AD65C-5D93-4C7B-BCFF-4035BDDABE20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{D0FD9547-FBA3-4462-B5A0-65DE7BE92278}"/>
   </bookViews>
@@ -25,21 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
-  <si>
-    <t>True Stream compac with cache</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>True Stream compac with wo cache</t>
-  </si>
-  <si>
-    <t>False Stream compac with cache</t>
-  </si>
-  <si>
-    <t>False Stream compac with wo cache</t>
   </si>
   <si>
     <t>64 depth</t>
@@ -49,6 +37,42 @@
   </si>
   <si>
     <t>no wall</t>
+  </si>
+  <si>
+    <t>No Surrounding Wall</t>
+  </si>
+  <si>
+    <t>Contained Enviroment</t>
+  </si>
+  <si>
+    <t>W Stream Compaction and  W/O Cache</t>
+  </si>
+  <si>
+    <t>W/O Stream Compaction and  W/O Cache</t>
+  </si>
+  <si>
+    <t>W/O Stream Compaction and  W Cache</t>
+  </si>
+  <si>
+    <t>W Stream Compaction and  W Cache</t>
+  </si>
+  <si>
+    <t>With</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>Depth of 64</t>
+  </si>
+  <si>
+    <t>Depth of 8</t>
+  </si>
+  <si>
+    <t>W Material Sort</t>
+  </si>
+  <si>
+    <t>W/O Material Sort</t>
   </si>
 </sst>
 </file>
@@ -84,8 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -101,6 +126,4494 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1700" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Stream Compaction Performance Improvement in 2 Enviroments</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1700">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Contained Enviroment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$4:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.5800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.46E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8999999999999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6AE7-4AAB-A638-D4400055977E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Surrounding Wall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.5100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6AE7-4AAB-A638-D4400055977E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="821370544"/>
+        <c:axId val="876419432"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="821370544"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>The</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> Bounce Number (depth)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="876419432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="876419432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Avg</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> Time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="821370544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1700"/>
+              <a:t>Stream</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1700" baseline="0"/>
+              <a:t> Compaction Performance Improvement in 2 Enviroments</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1700"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Contained Enviroment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>640000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512487</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>427009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250690</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>175832</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90262</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63626</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2011-484A-84BE-82405D2803E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Surrounding Wall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$4:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>640000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>234550</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72177</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35271</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10753</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7243</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5233</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2011-484A-84BE-82405D2803E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="903118144"/>
+        <c:axId val="903121424"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="903118144"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>The Bounce Number (depth)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="903121424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="903121424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> Active Rays</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="903118144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:tx>
+              <c:rich>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="en-US" b="1"/>
+                    <a:t>Thousands</a:t>
+                  </a:r>
+                </a:p>
+              </c:rich>
+            </c:tx>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1700" b="1"/>
+              <a:t>Affect of Stream Compaction and Cacheing</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$5:$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>W Stream Compaction and  W Cache</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>W Stream Compaction and  W/O Cache</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>W/O Stream Compaction and  W Cache</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>W/O Stream Compaction and  W/O Cache</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.9E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3999999999999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-70A4-4ACC-BA10-879E4E3EBA54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="821367264"/>
+        <c:axId val="821372840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="821367264"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="821372840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="821372840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Time per Frame</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="821367264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Impact</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Material</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Sort</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W Material Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$E$31:$F$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$F$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Depth of 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$E$32:$F$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BCC5-4DCE-A010-BA92590E1158}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W/O Material Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$E$31:$F$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$F$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Depth of 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$E$33:$F$33</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.5999999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BCC5-4DCE-A010-BA92590E1158}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="902799064"/>
+        <c:axId val="902798408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="902799064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="902798408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="902798408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Time per Frame (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="902799064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
+  <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="347">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="347">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93880F39-0311-4F38-9184-0B34B7090B3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>33335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1819C53C-D8B5-443F-BDA3-CCA9E38A9059}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>261936</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>109535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60AE0FE4-044E-484A-ACAE-862944D22896}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>290511</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E632D468-B3B2-4658-BBB5-A9C4AF148D4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,39 +4913,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CF778C-EB49-4CB9-997F-AE69B2B79673}">
-  <dimension ref="A2:K22"/>
+  <dimension ref="A2:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K13:K14"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="L3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="Q3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4">
-        <v>1.5800000000000002E-2</v>
+        <v>2</v>
       </c>
       <c r="K4">
         <v>640000</v>
       </c>
+      <c r="L4">
+        <v>640000</v>
+      </c>
+      <c r="Q4">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="R4">
+        <v>1.5100000000000001E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>1.9E-3</v>
@@ -440,30 +4983,42 @@
       <c r="E5">
         <v>61</v>
       </c>
-      <c r="J5">
-        <v>1.46E-2</v>
-      </c>
       <c r="K5">
         <v>512487</v>
       </c>
+      <c r="L5">
+        <v>234550</v>
+      </c>
+      <c r="Q5">
+        <v>1.46E-2</v>
+      </c>
+      <c r="R5">
+        <v>7.0000000000000001E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>2E-3</v>
       </c>
-      <c r="J6">
-        <v>1.2999999999999999E-2</v>
-      </c>
       <c r="K6">
         <v>427009</v>
       </c>
+      <c r="L6">
+        <v>72177</v>
+      </c>
+      <c r="Q6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="R6">
+        <v>3.0000000000000001E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>3.3E-3</v>
@@ -471,70 +5026,100 @@
       <c r="E7">
         <v>640000</v>
       </c>
-      <c r="J7">
-        <v>8.8999999999999999E-3</v>
-      </c>
       <c r="K7">
         <v>250690</v>
       </c>
+      <c r="L7">
+        <v>35271</v>
+      </c>
+      <c r="Q7">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="R7">
+        <v>1.8E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="J8">
-        <v>6.1000000000000004E-3</v>
-      </c>
       <c r="K8">
         <v>175832</v>
       </c>
+      <c r="L8">
+        <v>18664</v>
+      </c>
+      <c r="Q8">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="R8">
+        <v>1.1999999999999999E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J9">
-        <v>5.1999999999999998E-3</v>
-      </c>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K9">
         <v>125298</v>
       </c>
+      <c r="L9">
+        <v>10753</v>
+      </c>
+      <c r="Q9">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="R9">
+        <v>1.4E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J10">
-        <v>3.8999999999999998E-3</v>
-      </c>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K10">
         <v>90262</v>
       </c>
+      <c r="L10">
+        <v>7243</v>
+      </c>
+      <c r="Q10">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="R10">
+        <v>8.9999999999999998E-4</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J11">
-        <v>2.8999999999999998E-3</v>
-      </c>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K11">
         <v>63626</v>
       </c>
+      <c r="L11">
+        <v>5233</v>
+      </c>
+      <c r="Q11">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="R11">
+        <v>8.0000000000000004E-4</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D15">
         <v>1.1000000000000001E-3</v>
@@ -542,30 +5127,18 @@
       <c r="E15">
         <v>4</v>
       </c>
-      <c r="J15">
-        <v>1.5100000000000001E-2</v>
-      </c>
-      <c r="K15">
-        <v>640000</v>
-      </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="J16">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="K16">
-        <v>234550</v>
-      </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>2.3E-3</v>
@@ -573,60 +5146,69 @@
       <c r="E17">
         <v>640000</v>
       </c>
-      <c r="J17">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K17">
-        <v>72177</v>
-      </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="J18">
-        <v>1.8E-3</v>
-      </c>
-      <c r="K18">
-        <v>35271</v>
-      </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="J19">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="K19">
-        <v>18664</v>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="J20">
-        <v>1.4E-3</v>
-      </c>
-      <c r="K20">
-        <v>10753</v>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.04</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="J21">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="K21">
-        <v>7243</v>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="F33">
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="J22">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="K22">
-        <v>5233</v>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>